--- a/Câu hỏi Java.xlsx
+++ b/Câu hỏi Java.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Đáp án đúng</t>
   </si>
   <si>
-    <t>Đâu là câu SAI về ngôn ngữ Java?</t>
-  </si>
-  <si>
     <t>Ngôn ngữ Java có phân biệt chữ hoa – chữ thường</t>
   </si>
   <si>
@@ -52,13 +49,187 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Đâu không phải là một kiểu dữ liệu nguyên thủy trong Java?</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>long float</t>
+  </si>
+  <si>
+    <t>Trong câu lệnh sau: public static void main(String[] agrs) thì phần tử agrs[0] chứa giá trị gì?</t>
+  </si>
+  <si>
+    <t>Tên của chương trình</t>
+  </si>
+  <si>
+    <t>Số lượng tham số</t>
+  </si>
+  <si>
+    <t>Không câu nào đúng</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Tham số đầu tiên trong danh sách tham số</t>
+  </si>
+  <si>
+    <t>Phương thức next() của lớp Scanner dùng để làm gì?</t>
+  </si>
+  <si>
+    <t>Nhập một số nguyên</t>
+  </si>
+  <si>
+    <t>Nhập một ký tự</t>
+  </si>
+  <si>
+    <t>Nhập một chuỗi</t>
+  </si>
+  <si>
+    <t>Không có phương thức này</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netbeans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDK </t>
+  </si>
+  <si>
+    <t>Java Platform</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Đâu là khai báo đúng về lớp Cat?</t>
+  </si>
+  <si>
+    <t>interface Cat{}</t>
+  </si>
+  <si>
+    <t>public class Cat{}</t>
+  </si>
+  <si>
+    <t>static Cat{}</t>
+  </si>
+  <si>
+    <t>class public Cat{}</t>
+  </si>
+  <si>
+    <t>Gói nào trong java chứa lớp Scanner dùng để nhập dữ liệu từ bàn phím?</t>
+  </si>
+  <si>
+    <t> java.net</t>
+  </si>
+  <si>
+    <t>java.io</t>
+  </si>
+  <si>
+    <t>java.util</t>
+  </si>
+  <si>
+    <t>java.awt</t>
+  </si>
+  <si>
+    <t>Tên đầu tiên của Java là gì?</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>James golings</t>
+  </si>
+  <si>
+    <t>Giả sử đã định nghĩa lớp XX với một phương thức thông thường là Display, sau đó sinh ra đối tượng objX từ lớp XX. Để gọi phương thức Display ta sử dụng cú pháp nào?</t>
+  </si>
+  <si>
+    <t>Display();</t>
+  </si>
+  <si>
+    <t>objX.Display();</t>
+  </si>
+  <si>
+    <t>XX.Display();</t>
+  </si>
+  <si>
+    <t>XX.Display;</t>
+  </si>
+  <si>
+    <t>Tên lớp</t>
+  </si>
+  <si>
+    <t>Thuộc tính</t>
+  </si>
+  <si>
+    <t>Phương thức</t>
+  </si>
+  <si>
+    <t>Biến</t>
+  </si>
+  <si>
+    <t>Đối tượng trong Java là gì?</t>
+  </si>
+  <si>
+    <t>Đâu là câu sai về ngôn ngữ Java?</t>
+  </si>
+  <si>
+    <t>Muốn chạy được chương trình Java, chỉ cần cài phần mền nào sau đây?</t>
+  </si>
+  <si>
+    <t>Đâu không phải là thành phần trong cấu trúc của lớp trong Java.</t>
+  </si>
+  <si>
+    <t>Các lớp được tạo thể hiện từ đó</t>
+  </si>
+  <si>
+    <t>Một thể hiện của lớp</t>
+  </si>
+  <si>
+    <t>Một tham chiếu đến một thuộc tính</t>
+  </si>
+  <si>
+    <t>Một biến</t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu nào trong Java chứa giá trị bao gồm cả chữ và số?</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +246,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -99,10 +276,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="123.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" style="1" customWidth="1"/>
@@ -442,22 +620,242 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Câu hỏi Java.xlsx
+++ b/Câu hỏi Java.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="134">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -223,6 +223,201 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>Với giá trị nào của x, thì biểu thức x % 3 == 0 trả về true với x là kiểu số nguyên?</t>
+  </si>
+  <si>
+    <t>Đâu là khai báo biến hợp lệ?</t>
+  </si>
+  <si>
+    <t>theOne</t>
+  </si>
+  <si>
+    <t>the One</t>
+  </si>
+  <si>
+    <t>1the_One</t>
+  </si>
+  <si>
+    <t>$the One</t>
+  </si>
+  <si>
+    <t>Có mấy cách để truyền tham số vào cho một phương thức?</t>
+  </si>
+  <si>
+    <t>Trong các khai báo sau đâu là khai báo không hợp lệ?</t>
+  </si>
+  <si>
+    <t>int a1[][] = new int[][3]</t>
+  </si>
+  <si>
+    <t>int a2[][] = new int[2][3]</t>
+  </si>
+  <si>
+    <t>int a3[][] = new int[2][]</t>
+  </si>
+  <si>
+    <t>int a4[][] = {{}, {}, {}}</t>
+  </si>
+  <si>
+    <t>Phát biểu nào sau đây là đúng?</t>
+  </si>
+  <si>
+    <t>Mảng có thể lưu giữ các phần tử thuộc nhiều kiểu dữ liệu khác nhau</t>
+  </si>
+  <si>
+    <t>Chỉ số của mảng có thể sử dụng kiểu số thực (float, double)</t>
+  </si>
+  <si>
+    <t>Biểu thức array.length được sử dụng để trả về số phần tử trong mảng</t>
+  </si>
+  <si>
+    <t>Một phần tử của mảng không thể truyền vào trong một phương thức</t>
+  </si>
+  <si>
+    <t>Nếu phương thức của bạn ghi đè một trong số các phương thức của lớp cha, bạn có thể gọi phương thức bị ghi đè thông qua từ khóa nào?</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine là gì?</t>
+  </si>
+  <si>
+    <t>Là một thành phần của Java platform dùng để đọc mã bytecode trong file .class</t>
+  </si>
+  <si>
+    <t>Là chương trình biên dịch của java dùng để biên dịch file nguồn java thành mã bytecode</t>
+  </si>
+  <si>
+    <t>Là chương trình chạy cho java</t>
+  </si>
+  <si>
+    <t>Tất cả các đáp án đều đúng</t>
+  </si>
+  <si>
+    <t>Java chạy trên hệ điều hành nào sau đây?</t>
+  </si>
+  <si>
+    <t>Microsoft Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Sun Solaris OS</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình Java cung cấp các chức năng nào sau đây?</t>
+  </si>
+  <si>
+    <t>Tất cả đáp án trên</t>
+  </si>
+  <si>
+    <t>Giao diện lập trình ứng dụng</t>
+  </si>
+  <si>
+    <t>Bộ công cụ giao diện người dùng</t>
+  </si>
+  <si>
+    <t>Thư viện tích hợp</t>
+  </si>
+  <si>
+    <t>Khi biên dịch gặp lỗi Exception in thread main java.lang.NoClassDefFoundError: myprogram. Lỗi này có nghĩa gì?</t>
+  </si>
+  <si>
+    <t>Đường dẫn chương trình sai</t>
+  </si>
+  <si>
+    <t>Không có hàm main</t>
+  </si>
+  <si>
+    <t>Không khai báo class</t>
+  </si>
+  <si>
+    <t>Không có từ khóa public tại mở đầu khai báo class</t>
+  </si>
+  <si>
+    <t>Một lớp trong Java có thể có bao nhiêu lớp cha?</t>
+  </si>
+  <si>
+    <t>Một lớp trong Java có bao nhiêu lớp con?</t>
+  </si>
+  <si>
+    <t>Vô số</t>
+  </si>
+  <si>
+    <t>Kiểu enum là gì?</t>
+  </si>
+  <si>
+    <t>Là kiểu dữ liệu gồm các trường chứa một tập hợp cố định các hằng số</t>
+  </si>
+  <si>
+    <t>Là kiểu dữ liệu liệt kê các biến số</t>
+  </si>
+  <si>
+    <t>Là một kiểu dữ liệu trong java</t>
+  </si>
+  <si>
+    <t>Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>Phạm vi truy cập của một đối tượng khi được khai bao protected là gì?</t>
+  </si>
+  <si>
+    <t>Có thể được truy cập từ bất kỳ vị trí nào trong chương trình</t>
+  </si>
+  <si>
+    <t>Có thể được truy cập từ các lớp trong cùng package</t>
+  </si>
+  <si>
+    <t>Có thể được truy cập từ các lớp trong cùng package và lớp con nằm trong package khác</t>
+  </si>
+  <si>
+    <t>Chỉ có thể truy cập từ các phương thức khác trong class đó</t>
+  </si>
+  <si>
+    <t>Phạm vi truy cập của một đối tượng khi được khai báo public là gì?</t>
+  </si>
+  <si>
+    <t>Cho xâu kí tự s=”ABCDEF”. Để lấy kỳ tự thứ ‘E’ của xâu ký tự s(String) dùng câu lệnh nào sau đây?</t>
+  </si>
+  <si>
+    <t>s.charAt(5)</t>
+  </si>
+  <si>
+    <t>s.charAt(4)</t>
+  </si>
+  <si>
+    <t>s[5]</t>
+  </si>
+  <si>
+    <t>s[4]</t>
+  </si>
+  <si>
+    <t>Trong Java, kiểu dữ liệu nào là một địa chỉ của đối tượng hoặc một mảng được tạo ra trong bộ nhớ?</t>
+  </si>
+  <si>
+    <t>Kiểu primitive</t>
+  </si>
+  <si>
+    <t>Kiểu reference</t>
+  </si>
+  <si>
+    <t>Kiểu format</t>
+  </si>
+  <si>
+    <t>Không có đáp án đúng</t>
   </si>
 </sst>
 </file>
@@ -582,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -856,6 +1051,346 @@
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Câu hỏi Java.xlsx
+++ b/Câu hỏi Java.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -418,6 +418,21 @@
   </si>
   <si>
     <t>Không có đáp án đúng</t>
+  </si>
+  <si>
+    <t>Biến dữ liệu là các biến dạng nào sau đây?</t>
+  </si>
+  <si>
+    <t>Biến lớp và Tham số</t>
+  </si>
+  <si>
+    <t>Biến cục bộ và Tham số</t>
+  </si>
+  <si>
+    <t>Biến cục bộ và biến lớp</t>
+  </si>
+  <si>
+    <t>Các đáp án đều sai</t>
   </si>
 </sst>
 </file>
@@ -777,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1390,6 +1405,26 @@
         <v>133</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
